--- a/loi_nhap_du_lieu.xlsx
+++ b/loi_nhap_du_lieu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Tên đăng nhập</t>
   </si>
   <si>
-    <t>Nguyễn Thi Kim Anh</t>
-  </si>
-  <si>
-    <t>0833333333</t>
+    <t>Nguyễn Thi Kim Anh3</t>
+  </si>
+  <si>
+    <t>0833333337</t>
   </si>
   <si>
     <t>112abcd@gmail.com</t>
@@ -50,19 +50,16 @@
     <t>Phù Chẩn - Từ Sơn -Bắc Ninh</t>
   </si>
   <si>
-    <t>abcd123</t>
+    <t>abcd11</t>
   </si>
   <si>
     <t>Email đã tồn tại trong hệ thống!</t>
   </si>
   <si>
-    <t>Username đã tồn tại trong hệ thống!</t>
-  </si>
-  <si>
     <t>Dương Thanh Lâm</t>
   </si>
   <si>
-    <t>0943333333</t>
+    <t>0943333331</t>
   </si>
   <si>
     <t>231nguyen@gmail.com</t>
@@ -71,7 +68,7 @@
     <t>17/02/2003</t>
   </si>
   <si>
-    <t>asdsd123</t>
+    <t>asdsd1231</t>
   </si>
   <si>
     <t>Nguyễn Văn Dương</t>
@@ -83,7 +80,7 @@
     <t>17/02/2004</t>
   </si>
   <si>
-    <t>sssssss123</t>
+    <t>sssssss1231</t>
   </si>
   <si>
     <t>Đặng Vũ Hùng</t>
@@ -95,10 +92,13 @@
     <t>17/02/2005</t>
   </si>
   <si>
-    <t>zvgt123</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Sơn</t>
+    <t>zvgt1231</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0943333339</t>
   </si>
   <si>
     <t>123nguyenW@gmail.com</t>
@@ -107,7 +107,7 @@
     <t>17/02/2006</t>
   </si>
   <si>
-    <t>qmkgt123</t>
+    <t>qmkgt1231</t>
   </si>
 </sst>
 </file>
@@ -211,85 +211,85 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s" s="1">
-        <v>14</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>13</v>
@@ -303,8 +303,8 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s" s="1">
-        <v>14</v>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/loi_nhap_du_lieu.xlsx
+++ b/loi_nhap_du_lieu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Tên đăng nhập</t>
   </si>
   <si>
-    <t>Nguyễn Thi Kim Anh3</t>
-  </si>
-  <si>
-    <t>0833333337</t>
+    <t>Nguyễn Thi Kim Anh</t>
+  </si>
+  <si>
+    <t>0833333333</t>
   </si>
   <si>
     <t>112abcd@gmail.com</t>
@@ -50,16 +50,19 @@
     <t>Phù Chẩn - Từ Sơn -Bắc Ninh</t>
   </si>
   <si>
-    <t>abcd11</t>
+    <t>abcd123</t>
   </si>
   <si>
     <t>Email đã tồn tại trong hệ thống!</t>
   </si>
   <si>
+    <t>Username đã tồn tại trong hệ thống!</t>
+  </si>
+  <si>
     <t>Dương Thanh Lâm</t>
   </si>
   <si>
-    <t>0943333331</t>
+    <t>0943333333</t>
   </si>
   <si>
     <t>231nguyen@gmail.com</t>
@@ -68,7 +71,7 @@
     <t>17/02/2003</t>
   </si>
   <si>
-    <t>asdsd1231</t>
+    <t>asdsd123</t>
   </si>
   <si>
     <t>Nguyễn Văn Dương</t>
@@ -80,7 +83,7 @@
     <t>17/02/2004</t>
   </si>
   <si>
-    <t>sssssss1231</t>
+    <t>sssssss123</t>
   </si>
   <si>
     <t>Đặng Vũ Hùng</t>
@@ -92,13 +95,10 @@
     <t>17/02/2005</t>
   </si>
   <si>
-    <t>zvgt1231</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0943333339</t>
+    <t>zvgt123</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Sơn</t>
   </si>
   <si>
     <t>123nguyenW@gmail.com</t>
@@ -107,7 +107,7 @@
     <t>17/02/2006</t>
   </si>
   <si>
-    <t>qmkgt1231</t>
+    <t>qmkgt123</t>
   </si>
 </sst>
 </file>
@@ -211,22 +211,22 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -234,22 +234,22 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -257,22 +257,22 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
+      <c r="G4" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -280,19 +280,19 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="G5" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>

--- a/loi_nhap_du_lieu.xlsx
+++ b/loi_nhap_du_lieu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Tên đăng nhập</t>
   </si>
   <si>
-    <t>Nguyễn Thi Kim Anh</t>
-  </si>
-  <si>
-    <t>0833333333</t>
+    <t>Nguyễn Thi Kim Anh3</t>
+  </si>
+  <si>
+    <t>0833333337</t>
   </si>
   <si>
     <t>112abcd@gmail.com</t>
@@ -50,19 +50,16 @@
     <t>Phù Chẩn - Từ Sơn -Bắc Ninh</t>
   </si>
   <si>
-    <t>abcd123</t>
+    <t>abcd11</t>
   </si>
   <si>
     <t>Email đã tồn tại trong hệ thống!</t>
   </si>
   <si>
-    <t>Username đã tồn tại trong hệ thống!</t>
-  </si>
-  <si>
     <t>Dương Thanh Lâm</t>
   </si>
   <si>
-    <t>0943333333</t>
+    <t>0943333331</t>
   </si>
   <si>
     <t>231nguyen@gmail.com</t>
@@ -71,7 +68,7 @@
     <t>17/02/2003</t>
   </si>
   <si>
-    <t>asdsd123</t>
+    <t>asdsd1231</t>
   </si>
   <si>
     <t>Nguyễn Văn Dương</t>
@@ -83,7 +80,7 @@
     <t>17/02/2004</t>
   </si>
   <si>
-    <t>sssssss123</t>
+    <t>sssssss1231</t>
   </si>
   <si>
     <t>Đặng Vũ Hùng</t>
@@ -95,10 +92,13 @@
     <t>17/02/2005</t>
   </si>
   <si>
-    <t>zvgt123</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Sơn</t>
+    <t>zvgt1231</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0943333339</t>
   </si>
   <si>
     <t>123nguyenW@gmail.com</t>
@@ -107,7 +107,7 @@
     <t>17/02/2006</t>
   </si>
   <si>
-    <t>qmkgt123</t>
+    <t>qmkgt1231</t>
   </si>
 </sst>
 </file>
@@ -211,85 +211,85 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s" s="1">
-        <v>14</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
